--- a/data/raw/election/voters-age-sex-education/2023/Erzincan.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Erzincan.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="38">
   <si>
     <t>Erzincan</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Üzümlü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -679,6 +686,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,10 +1024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136:K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,52 +1042,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2077,8 +2093,8 @@
       <c r="D30" s="5">
         <v>400</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.8069999999999999</v>
+      <c r="E30" s="7">
+        <v>1807</v>
       </c>
       <c r="F30" s="5">
         <v>526</v>
@@ -2086,8 +2102,8 @@
       <c r="G30" s="5">
         <v>875</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.4970000000000001</v>
+      <c r="H30" s="7">
+        <v>1497</v>
       </c>
       <c r="I30" s="5">
         <v>679</v>
@@ -2101,15 +2117,15 @@
       <c r="L30" s="5">
         <v>94</v>
       </c>
-      <c r="M30" s="5">
-        <v>6.2789999999999999</v>
+      <c r="M30" s="7">
+        <v>6279</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,14 +2179,14 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5.1660000000000004</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.7869999999999999</v>
+      <c r="G32" s="8">
+        <v>1317</v>
+      </c>
+      <c r="H32" s="8">
+        <v>5166</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1787</v>
       </c>
       <c r="J32" s="4">
         <v>14</v>
@@ -2181,8 +2197,8 @@
       <c r="L32" s="4">
         <v>35</v>
       </c>
-      <c r="M32" s="5">
-        <v>8.3559999999999999</v>
+      <c r="M32" s="7">
+        <v>8356</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2202,14 +2218,14 @@
       <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.179</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.93</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.679</v>
+      <c r="G33" s="8">
+        <v>1179</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4930</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1679</v>
       </c>
       <c r="J33" s="4">
         <v>18</v>
@@ -2220,8 +2236,8 @@
       <c r="L33" s="4">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
-        <v>7.88</v>
+      <c r="M33" s="7">
+        <v>7880</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2246,11 +2262,11 @@
       <c r="G34" s="4">
         <v>674</v>
       </c>
-      <c r="H34" s="4">
-        <v>2.0659999999999998</v>
-      </c>
-      <c r="I34" s="4">
-        <v>3.26</v>
+      <c r="H34" s="8">
+        <v>2066</v>
+      </c>
+      <c r="I34" s="8">
+        <v>3260</v>
       </c>
       <c r="J34" s="4">
         <v>187</v>
@@ -2261,8 +2277,8 @@
       <c r="L34" s="4">
         <v>33</v>
       </c>
-      <c r="M34" s="5">
-        <v>6.2960000000000003</v>
+      <c r="M34" s="7">
+        <v>6296</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2285,11 +2301,11 @@
       <c r="G35" s="4">
         <v>905</v>
       </c>
-      <c r="H35" s="4">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3.3010000000000002</v>
+      <c r="H35" s="8">
+        <v>1564</v>
+      </c>
+      <c r="I35" s="8">
+        <v>3301</v>
       </c>
       <c r="J35" s="4">
         <v>295</v>
@@ -2300,8 +2316,8 @@
       <c r="L35" s="4">
         <v>24</v>
       </c>
-      <c r="M35" s="5">
-        <v>6.2539999999999996</v>
+      <c r="M35" s="7">
+        <v>6254</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2326,11 +2342,11 @@
       <c r="G36" s="4">
         <v>364</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.831</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.2770000000000001</v>
+      <c r="H36" s="8">
+        <v>1831</v>
+      </c>
+      <c r="I36" s="8">
+        <v>2277</v>
       </c>
       <c r="J36" s="4">
         <v>381</v>
@@ -2341,8 +2357,8 @@
       <c r="L36" s="4">
         <v>30</v>
       </c>
-      <c r="M36" s="5">
-        <v>5.327</v>
+      <c r="M36" s="7">
+        <v>5327</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2365,11 +2381,11 @@
       <c r="G37" s="4">
         <v>385</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.56</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2.4769999999999999</v>
+      <c r="H37" s="8">
+        <v>1560</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2477</v>
       </c>
       <c r="J37" s="4">
         <v>375</v>
@@ -2380,8 +2396,8 @@
       <c r="L37" s="4">
         <v>24</v>
       </c>
-      <c r="M37" s="5">
-        <v>5.6559999999999997</v>
+      <c r="M37" s="7">
+        <v>5656</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2406,11 +2422,11 @@
       <c r="G38" s="4">
         <v>321</v>
       </c>
-      <c r="H38" s="4">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.883</v>
+      <c r="H38" s="8">
+        <v>2068</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1883</v>
       </c>
       <c r="J38" s="4">
         <v>390</v>
@@ -2421,8 +2437,8 @@
       <c r="L38" s="4">
         <v>29</v>
       </c>
-      <c r="M38" s="5">
-        <v>5.5049999999999999</v>
+      <c r="M38" s="7">
+        <v>5505</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2445,11 +2461,11 @@
       <c r="G39" s="4">
         <v>537</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.9379999999999999</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.714</v>
+      <c r="H39" s="8">
+        <v>1938</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1714</v>
       </c>
       <c r="J39" s="4">
         <v>282</v>
@@ -2460,8 +2476,8 @@
       <c r="L39" s="4">
         <v>25</v>
       </c>
-      <c r="M39" s="5">
-        <v>5.883</v>
+      <c r="M39" s="7">
+        <v>5883</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2486,11 +2502,11 @@
       <c r="G40" s="4">
         <v>728</v>
       </c>
-      <c r="H40" s="4">
-        <v>2.1840000000000002</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.5629999999999999</v>
+      <c r="H40" s="8">
+        <v>2184</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1563</v>
       </c>
       <c r="J40" s="4">
         <v>316</v>
@@ -2501,8 +2517,8 @@
       <c r="L40" s="4">
         <v>38</v>
       </c>
-      <c r="M40" s="5">
-        <v>5.7089999999999996</v>
+      <c r="M40" s="7">
+        <v>5709</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2525,11 +2541,11 @@
       <c r="G41" s="4">
         <v>927</v>
       </c>
-      <c r="H41" s="4">
-        <v>1.901</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.23</v>
+      <c r="H41" s="8">
+        <v>1901</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1230</v>
       </c>
       <c r="J41" s="4">
         <v>172</v>
@@ -2540,8 +2556,8 @@
       <c r="L41" s="4">
         <v>36</v>
       </c>
-      <c r="M41" s="5">
-        <v>5.907</v>
+      <c r="M41" s="7">
+        <v>5907</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2566,11 +2582,11 @@
       <c r="G42" s="4">
         <v>724</v>
       </c>
-      <c r="H42" s="4">
-        <v>1.762</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.3260000000000001</v>
+      <c r="H42" s="8">
+        <v>1762</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1326</v>
       </c>
       <c r="J42" s="4">
         <v>183</v>
@@ -2581,8 +2597,8 @@
       <c r="L42" s="4">
         <v>33</v>
       </c>
-      <c r="M42" s="5">
-        <v>5.1120000000000001</v>
+      <c r="M42" s="7">
+        <v>5112</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2596,8 +2612,8 @@
       <c r="D43" s="4">
         <v>60</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.153</v>
+      <c r="E43" s="8">
+        <v>1153</v>
       </c>
       <c r="F43" s="4">
         <v>654</v>
@@ -2605,8 +2621,8 @@
       <c r="G43" s="4">
         <v>885</v>
       </c>
-      <c r="H43" s="4">
-        <v>1.4670000000000001</v>
+      <c r="H43" s="8">
+        <v>1467</v>
       </c>
       <c r="I43" s="4">
         <v>691</v>
@@ -2620,8 +2636,8 @@
       <c r="L43" s="4">
         <v>28</v>
       </c>
-      <c r="M43" s="5">
-        <v>5.0839999999999996</v>
+      <c r="M43" s="7">
+        <v>5084</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2646,8 +2662,8 @@
       <c r="G44" s="4">
         <v>901</v>
       </c>
-      <c r="H44" s="4">
-        <v>1.272</v>
+      <c r="H44" s="8">
+        <v>1272</v>
       </c>
       <c r="I44" s="4">
         <v>989</v>
@@ -2661,8 +2677,8 @@
       <c r="L44" s="4">
         <v>47</v>
       </c>
-      <c r="M44" s="5">
-        <v>4.5599999999999996</v>
+      <c r="M44" s="7">
+        <v>4560</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2676,8 +2692,8 @@
       <c r="D45" s="4">
         <v>80</v>
       </c>
-      <c r="E45" s="4">
-        <v>1.3859999999999999</v>
+      <c r="E45" s="8">
+        <v>1386</v>
       </c>
       <c r="F45" s="4">
         <v>698</v>
@@ -2685,8 +2701,8 @@
       <c r="G45" s="4">
         <v>832</v>
       </c>
-      <c r="H45" s="4">
-        <v>1.1060000000000001</v>
+      <c r="H45" s="8">
+        <v>1106</v>
       </c>
       <c r="I45" s="4">
         <v>360</v>
@@ -2700,8 +2716,8 @@
       <c r="L45" s="4">
         <v>55</v>
       </c>
-      <c r="M45" s="5">
-        <v>4.6680000000000001</v>
+      <c r="M45" s="7">
+        <v>4668</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,8 +2742,8 @@
       <c r="G46" s="4">
         <v>858</v>
       </c>
-      <c r="H46" s="4">
-        <v>1.1459999999999999</v>
+      <c r="H46" s="8">
+        <v>1146</v>
       </c>
       <c r="I46" s="4">
         <v>661</v>
@@ -2741,8 +2757,8 @@
       <c r="L46" s="4">
         <v>64</v>
       </c>
-      <c r="M46" s="5">
-        <v>4.1059999999999999</v>
+      <c r="M46" s="7">
+        <v>4106</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2756,8 +2772,8 @@
       <c r="D47" s="4">
         <v>141</v>
       </c>
-      <c r="E47" s="4">
-        <v>1.694</v>
+      <c r="E47" s="8">
+        <v>1694</v>
       </c>
       <c r="F47" s="4">
         <v>496</v>
@@ -2780,8 +2796,8 @@
       <c r="L47" s="4">
         <v>72</v>
       </c>
-      <c r="M47" s="5">
-        <v>4.2050000000000001</v>
+      <c r="M47" s="7">
+        <v>4205</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2821,8 +2837,8 @@
       <c r="L48" s="4">
         <v>52</v>
       </c>
-      <c r="M48" s="5">
-        <v>3.5169999999999999</v>
+      <c r="M48" s="7">
+        <v>3517</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2836,8 +2852,8 @@
       <c r="D49" s="4">
         <v>260</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.7310000000000001</v>
+      <c r="E49" s="8">
+        <v>1731</v>
       </c>
       <c r="F49" s="4">
         <v>272</v>
@@ -2860,8 +2876,8 @@
       <c r="L49" s="4">
         <v>50</v>
       </c>
-      <c r="M49" s="5">
-        <v>3.726</v>
+      <c r="M49" s="7">
+        <v>3726</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,8 +2893,8 @@
       <c r="D50" s="4">
         <v>55</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.1519999999999999</v>
+      <c r="E50" s="8">
+        <v>1152</v>
       </c>
       <c r="F50" s="4">
         <v>227</v>
@@ -2901,8 +2917,8 @@
       <c r="L50" s="4">
         <v>65</v>
       </c>
-      <c r="M50" s="5">
-        <v>2.956</v>
+      <c r="M50" s="7">
+        <v>2956</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2916,8 +2932,8 @@
       <c r="D51" s="4">
         <v>420</v>
       </c>
-      <c r="E51" s="4">
-        <v>1.5609999999999999</v>
+      <c r="E51" s="8">
+        <v>1561</v>
       </c>
       <c r="F51" s="4">
         <v>102</v>
@@ -2940,8 +2956,8 @@
       <c r="L51" s="4">
         <v>72</v>
       </c>
-      <c r="M51" s="5">
-        <v>3.246</v>
+      <c r="M51" s="7">
+        <v>3246</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2957,8 +2973,8 @@
       <c r="D52" s="4">
         <v>115</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.0860000000000001</v>
+      <c r="E52" s="8">
+        <v>1086</v>
       </c>
       <c r="F52" s="4">
         <v>66</v>
@@ -2981,8 +2997,8 @@
       <c r="L52" s="4">
         <v>43</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.1709999999999998</v>
+      <c r="M52" s="7">
+        <v>2171</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2996,8 +3012,8 @@
       <c r="D53" s="4">
         <v>393</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.036</v>
+      <c r="E53" s="8">
+        <v>1036</v>
       </c>
       <c r="F53" s="4">
         <v>36</v>
@@ -3020,8 +3036,8 @@
       <c r="L53" s="4">
         <v>77</v>
       </c>
-      <c r="M53" s="5">
-        <v>2.42</v>
+      <c r="M53" s="7">
+        <v>2420</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3037,8 +3053,8 @@
       <c r="D54" s="4">
         <v>300</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.343</v>
+      <c r="E54" s="8">
+        <v>1343</v>
       </c>
       <c r="F54" s="4">
         <v>26</v>
@@ -3061,8 +3077,8 @@
       <c r="L54" s="4">
         <v>130</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.5049999999999999</v>
+      <c r="M54" s="7">
+        <v>2505</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3070,14 +3086,14 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.494</v>
+      <c r="C55" s="8">
+        <v>1494</v>
       </c>
       <c r="D55" s="4">
         <v>864</v>
       </c>
-      <c r="E55" s="4">
-        <v>1.26</v>
+      <c r="E55" s="8">
+        <v>1260</v>
       </c>
       <c r="F55" s="4">
         <v>11</v>
@@ -3100,8 +3116,8 @@
       <c r="L55" s="4">
         <v>118</v>
       </c>
-      <c r="M55" s="5">
-        <v>3.9159999999999999</v>
+      <c r="M55" s="7">
+        <v>3916</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3109,45 +3125,45 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>3.798</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.048</v>
-      </c>
-      <c r="E56" s="5">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>8.4949999999999992</v>
-      </c>
-      <c r="G56" s="5">
-        <v>14.49</v>
-      </c>
-      <c r="H56" s="5">
-        <v>35.661000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>26.789000000000001</v>
-      </c>
-      <c r="J56" s="5">
-        <v>3.0329999999999999</v>
+      <c r="C56" s="7">
+        <v>3798</v>
+      </c>
+      <c r="D56" s="7">
+        <v>3048</v>
+      </c>
+      <c r="E56" s="7">
+        <v>17650</v>
+      </c>
+      <c r="F56" s="7">
+        <v>8495</v>
+      </c>
+      <c r="G56" s="7">
+        <v>14490</v>
+      </c>
+      <c r="H56" s="7">
+        <v>35661</v>
+      </c>
+      <c r="I56" s="7">
+        <v>26789</v>
+      </c>
+      <c r="J56" s="7">
+        <v>3033</v>
       </c>
       <c r="K56" s="5">
         <v>806</v>
       </c>
-      <c r="L56" s="5">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="M56" s="5">
-        <v>114.965</v>
+      <c r="L56" s="7">
+        <v>1195</v>
+      </c>
+      <c r="M56" s="7">
+        <v>114965</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4153,8 +4169,8 @@
       <c r="D82" s="5">
         <v>383</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.78</v>
+      <c r="E82" s="7">
+        <v>1780</v>
       </c>
       <c r="F82" s="5">
         <v>500</v>
@@ -4162,8 +4178,8 @@
       <c r="G82" s="5">
         <v>889</v>
       </c>
-      <c r="H82" s="5">
-        <v>1.7769999999999999</v>
+      <c r="H82" s="7">
+        <v>1777</v>
       </c>
       <c r="I82" s="5">
         <v>999</v>
@@ -4177,15 +4193,15 @@
       <c r="L82" s="5">
         <v>32</v>
       </c>
-      <c r="M82" s="5">
-        <v>6.8259999999999996</v>
+      <c r="M82" s="7">
+        <v>6826</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -5191,8 +5207,8 @@
       <c r="D108" s="5">
         <v>363</v>
       </c>
-      <c r="E108" s="5">
-        <v>2.0819999999999999</v>
+      <c r="E108" s="7">
+        <v>2082</v>
       </c>
       <c r="F108" s="5">
         <v>391</v>
@@ -5200,8 +5216,8 @@
       <c r="G108" s="5">
         <v>559</v>
       </c>
-      <c r="H108" s="5">
-        <v>1.046</v>
+      <c r="H108" s="7">
+        <v>1046</v>
       </c>
       <c r="I108" s="5">
         <v>522</v>
@@ -5215,15 +5231,15 @@
       <c r="L108" s="5">
         <v>67</v>
       </c>
-      <c r="M108" s="5">
-        <v>5.407</v>
+      <c r="M108" s="7">
+        <v>5407</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6229,8 +6245,8 @@
       <c r="D134" s="5">
         <v>198</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.2809999999999999</v>
+      <c r="E134" s="7">
+        <v>1281</v>
       </c>
       <c r="F134" s="5">
         <v>205</v>
@@ -6253,15 +6269,15 @@
       <c r="L134" s="5">
         <v>36</v>
       </c>
-      <c r="M134" s="5">
-        <v>3.6970000000000001</v>
+      <c r="M134" s="7">
+        <v>3697</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6286,7 +6302,7 @@
       <c r="J135" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L135" s="2" t="s">
@@ -6327,8 +6343,8 @@
       <c r="J136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K136" s="4" t="s">
-        <v>15</v>
+      <c r="K136" s="4">
+        <v>0</v>
       </c>
       <c r="L136" s="4">
         <v>2</v>
@@ -6366,8 +6382,8 @@
       <c r="J137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K137" s="4" t="s">
-        <v>15</v>
+      <c r="K137" s="4">
+        <v>0</v>
       </c>
       <c r="L137" s="4">
         <v>1</v>
@@ -6407,8 +6423,8 @@
       <c r="J138" s="4">
         <v>6</v>
       </c>
-      <c r="K138" s="4" t="s">
-        <v>15</v>
+      <c r="K138" s="4">
+        <v>0</v>
       </c>
       <c r="L138" s="4" t="s">
         <v>15</v>
@@ -6446,8 +6462,8 @@
       <c r="J139" s="4">
         <v>2</v>
       </c>
-      <c r="K139" s="4" t="s">
-        <v>15</v>
+      <c r="K139" s="4">
+        <v>0</v>
       </c>
       <c r="L139" s="4" t="s">
         <v>15</v>
@@ -6487,8 +6503,8 @@
       <c r="J140" s="4">
         <v>3</v>
       </c>
-      <c r="K140" s="4" t="s">
-        <v>15</v>
+      <c r="K140" s="4">
+        <v>0</v>
       </c>
       <c r="L140" s="4" t="s">
         <v>15</v>
@@ -6526,8 +6542,8 @@
       <c r="J141" s="4">
         <v>4</v>
       </c>
-      <c r="K141" s="4" t="s">
-        <v>15</v>
+      <c r="K141" s="4">
+        <v>0</v>
       </c>
       <c r="L141" s="4" t="s">
         <v>15</v>
@@ -6567,8 +6583,8 @@
       <c r="J142" s="4">
         <v>3</v>
       </c>
-      <c r="K142" s="4" t="s">
-        <v>15</v>
+      <c r="K142" s="4">
+        <v>0</v>
       </c>
       <c r="L142" s="4" t="s">
         <v>15</v>
@@ -6606,8 +6622,8 @@
       <c r="J143" s="4">
         <v>2</v>
       </c>
-      <c r="K143" s="4" t="s">
-        <v>15</v>
+      <c r="K143" s="4">
+        <v>0</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>15</v>
@@ -6647,8 +6663,8 @@
       <c r="J144" s="4">
         <v>1</v>
       </c>
-      <c r="K144" s="4" t="s">
-        <v>15</v>
+      <c r="K144" s="4">
+        <v>0</v>
       </c>
       <c r="L144" s="4">
         <v>1</v>
@@ -6686,8 +6702,8 @@
       <c r="J145" s="4">
         <v>1</v>
       </c>
-      <c r="K145" s="4" t="s">
-        <v>15</v>
+      <c r="K145" s="4">
+        <v>0</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>15</v>
@@ -6727,8 +6743,8 @@
       <c r="J146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K146" s="4" t="s">
-        <v>15</v>
+      <c r="K146" s="4">
+        <v>0</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>15</v>
@@ -6766,8 +6782,8 @@
       <c r="J147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="4" t="s">
-        <v>15</v>
+      <c r="K147" s="4">
+        <v>0</v>
       </c>
       <c r="L147" s="4">
         <v>1</v>
@@ -6807,8 +6823,8 @@
       <c r="J148" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K148" s="4" t="s">
-        <v>15</v>
+      <c r="K148" s="4">
+        <v>0</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>15</v>
@@ -6846,8 +6862,8 @@
       <c r="J149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K149" s="4" t="s">
-        <v>15</v>
+      <c r="K149" s="4">
+        <v>0</v>
       </c>
       <c r="L149" s="4">
         <v>1</v>
@@ -6887,8 +6903,8 @@
       <c r="J150" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K150" s="4" t="s">
-        <v>15</v>
+      <c r="K150" s="4">
+        <v>0</v>
       </c>
       <c r="L150" s="4">
         <v>1</v>
@@ -6926,8 +6942,8 @@
       <c r="J151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K151" s="4" t="s">
-        <v>15</v>
+      <c r="K151" s="4">
+        <v>0</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>15</v>
@@ -6967,8 +6983,8 @@
       <c r="J152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K152" s="4" t="s">
-        <v>15</v>
+      <c r="K152" s="4">
+        <v>0</v>
       </c>
       <c r="L152" s="4">
         <v>1</v>
@@ -7006,8 +7022,8 @@
       <c r="J153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K153" s="4" t="s">
-        <v>15</v>
+      <c r="K153" s="4">
+        <v>0</v>
       </c>
       <c r="L153" s="4">
         <v>1</v>
@@ -7047,8 +7063,8 @@
       <c r="J154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K154" s="4" t="s">
-        <v>15</v>
+      <c r="K154" s="4">
+        <v>0</v>
       </c>
       <c r="L154" s="4">
         <v>1</v>
@@ -7086,8 +7102,8 @@
       <c r="J155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K155" s="4" t="s">
-        <v>15</v>
+      <c r="K155" s="4">
+        <v>0</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>15</v>
@@ -7127,8 +7143,8 @@
       <c r="J156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K156" s="4" t="s">
-        <v>15</v>
+      <c r="K156" s="4">
+        <v>0</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>15</v>
@@ -7166,8 +7182,8 @@
       <c r="J157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K157" s="4" t="s">
-        <v>15</v>
+      <c r="K157" s="4">
+        <v>0</v>
       </c>
       <c r="L157" s="4">
         <v>1</v>
@@ -7207,8 +7223,8 @@
       <c r="J158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K158" s="4" t="s">
-        <v>15</v>
+      <c r="K158" s="4">
+        <v>0</v>
       </c>
       <c r="L158" s="4">
         <v>1</v>
@@ -7246,8 +7262,8 @@
       <c r="J159" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K159" s="4" t="s">
-        <v>15</v>
+      <c r="K159" s="4">
+        <v>0</v>
       </c>
       <c r="L159" s="4">
         <v>2</v>
@@ -7285,21 +7301,21 @@
       <c r="J160" s="5">
         <v>22</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="4">
         <v>0</v>
       </c>
       <c r="L160" s="5">
         <v>14</v>
       </c>
-      <c r="M160" s="5">
-        <v>1.76</v>
+      <c r="M160" s="7">
+        <v>1760</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -8305,8 +8321,8 @@
       <c r="D186" s="5">
         <v>654</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.8260000000000001</v>
+      <c r="E186" s="7">
+        <v>2826</v>
       </c>
       <c r="F186" s="5">
         <v>580</v>
@@ -8314,11 +8330,11 @@
       <c r="G186" s="5">
         <v>905</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.044</v>
+      <c r="H186" s="7">
+        <v>1930</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1044</v>
       </c>
       <c r="J186" s="5">
         <v>94</v>
@@ -8329,15 +8345,15 @@
       <c r="L186" s="5">
         <v>86</v>
       </c>
-      <c r="M186" s="5">
-        <v>8.9700000000000006</v>
+      <c r="M186" s="7">
+        <v>8970</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9343,20 +9359,20 @@
       <c r="D212" s="5">
         <v>612</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.74</v>
+      <c r="E212" s="7">
+        <v>2740</v>
       </c>
       <c r="F212" s="5">
         <v>846</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>3.1760000000000002</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.4279999999999999</v>
+      <c r="G212" s="7">
+        <v>1567</v>
+      </c>
+      <c r="H212" s="7">
+        <v>3176</v>
+      </c>
+      <c r="I212" s="7">
+        <v>1428</v>
       </c>
       <c r="J212" s="5">
         <v>141</v>
@@ -9367,15 +9383,15 @@
       <c r="L212" s="5">
         <v>152</v>
       </c>
-      <c r="M212" s="5">
-        <v>11.363</v>
+      <c r="M212" s="7">
+        <v>11363</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10381,20 +10397,20 @@
       <c r="D238" s="5">
         <v>428</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.206</v>
+      <c r="E238" s="7">
+        <v>2206</v>
       </c>
       <c r="F238" s="5">
         <v>811</v>
       </c>
-      <c r="G238" s="5">
-        <v>1.359</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.7810000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>1.155</v>
+      <c r="G238" s="7">
+        <v>1359</v>
+      </c>
+      <c r="H238" s="7">
+        <v>2781</v>
+      </c>
+      <c r="I238" s="7">
+        <v>1155</v>
       </c>
       <c r="J238" s="5">
         <v>81</v>
@@ -10405,8 +10421,18 @@
       <c r="L238" s="5">
         <v>945</v>
       </c>
-      <c r="M238" s="5">
-        <v>10.371</v>
+      <c r="M238" s="7">
+        <v>10371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
